--- a/EmployeeBenefitApplication-TestScenarios.xlsx
+++ b/EmployeeBenefitApplication-TestScenarios.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubha\Desktop\BugFindChallenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E543F79C-EF49-4F9B-94FB-42E6B417517A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF24A6CA-956A-447B-9AD1-F806AEBA1E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{A6B4F803-A7F0-4295-AB00-1AE2DE8403D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A6B4F803-A7F0-4295-AB00-1AE2DE8403D3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Scenarios" sheetId="2" r:id="rId2"/>
+    <sheet name="Scenarios" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="115">
   <si>
     <t>Functionality</t>
   </si>
@@ -99,9 +98,6 @@
 4.Click on Add button.</t>
   </si>
   <si>
-    <t>We see a 400 error in console, but in UI it doesn't mention First Name as required filed.</t>
-  </si>
-  <si>
     <t>Scenario 5: Add employee without any lastName.</t>
   </si>
   <si>
@@ -111,21 +107,6 @@
 4.Click on Add button.</t>
   </si>
   <si>
-    <t>We see a 400 error in console, but in UI it doesn't mention last Name as required filed.</t>
-  </si>
-  <si>
-    <t>Scenario 6:Add employee without any dependents</t>
-  </si>
-  <si>
-    <t>1.Login to Employee Benefit Application.
-2.Click on Add Employee button
-3. Do not enter any value for dependents, enter Chloe for last name, Jen  for first name, 2 as dependents
-4.Click on Add button.</t>
-  </si>
-  <si>
-    <t>We employee is added with zero dependents.38.46$ are deducted for benifis from every check of employee and employee will recive 1961.54$ as Net pay on every paycheck.</t>
-  </si>
-  <si>
     <t>Scenario 7: Add employee with negative dependents</t>
   </si>
   <si>
@@ -189,9 +170,6 @@
     <t>Scenario 12:Add Employee with valid name and dependents</t>
   </si>
   <si>
-    <t>We see a response 200 OK and we see employee is added. Benefits are calculated correctly</t>
-  </si>
-  <si>
     <t>Scenario13:Add employee with firstName and lastName as Numeric values</t>
   </si>
   <si>
@@ -201,37 +179,16 @@
     <t>Scenario 15: Add employee without any firstName.</t>
   </si>
   <si>
-    <t>We see a 400 bad request with "The FirstName field is required" error message.</t>
-  </si>
-  <si>
     <t>Scenario 16: Add employee without any lastName.</t>
   </si>
   <si>
-    <t>We see a 400 bad request with "The LastName field is required" error message.</t>
-  </si>
-  <si>
     <t>Scenario 17:Add employee without any dependents</t>
   </si>
   <si>
-    <t>We see a 500 Internal server error.</t>
-  </si>
-  <si>
     <t>Scenario 18:Add employee with zero dependents</t>
   </si>
   <si>
     <t>Scenario 19: Add employee with negative dependents</t>
-  </si>
-  <si>
-    <t>We see a 400 bad request with ""The field Dependants must be between 0 and 32." error message.</t>
-  </si>
-  <si>
-    <t>We see a 400 bad request with "The field Dependants must be between 0 and 32." error message.</t>
-  </si>
-  <si>
-    <t>We see a 400 bad request with "The field FirstName must be a string with a maximum length of 50." error message.</t>
-  </si>
-  <si>
-    <t>We see a 400 bad request with "The field LastName must be a string with a maximum length of 50." error message.</t>
   </si>
   <si>
     <t>Scenario 20: Add employee with Alphanumeric value in dependents.</t>
@@ -267,9 +224,6 @@
 </t>
   </si>
   <si>
-    <t>We see the employee POSTs added and no validation is done on it.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.Login to Postman app.
 2.Go to QA Challenge collection
 3. Send Add Employee POST request with  value for last name,  firstName and 1 depndent. Check the calcualtion.
@@ -330,27 +284,18 @@
 </t>
   </si>
   <si>
-    <t>We see the employee POSTs updated and can be seen in dsahboard.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.Login to Postman app.
 2.Go to QA Challenge collection
 3. Send Update Employee PUT request with   no value  for first name. Check the calcualtion.
 </t>
   </si>
   <si>
-    <t>We see a 400 bad request with "The FirstName field is required."</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.Login to Postman app.
 2.Go to QA Challenge collection
 3. Send Update Employee PUT request with   no value  for last name. Check the calcualtion.
 </t>
   </si>
   <si>
-    <t>We see a 400 bad request with "The LastName field is required."</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scenario 27:Update employee with no  dependents </t>
   </si>
   <si>
@@ -361,9 +306,6 @@
 2.Go to QA Challenge collection
 3. Send Update Employee PUT request with   no value  for dependents. Check the calcualtion.
 </t>
-  </si>
-  <si>
-    <t>We see a 500 internal server error.</t>
   </si>
   <si>
     <t>Scenario 28:Update employee with new id, firstname,lastname,dependents</t>
@@ -386,17 +328,11 @@
 3.Click on Delete button.</t>
   </si>
   <si>
-    <t>We a dialog box opens up asking "Delete employee record for FirstName LastName? And once Delete is clicked we see the record is been removed from dashboard.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.Login to Postman app.
 2.Go to QA Challenge collection
 3. Send Delete Employee DEL request with    id of an existing employee. </t>
   </si>
   <si>
-    <t>We see 200 OK status and we don't see the employee record in UI.</t>
-  </si>
-  <si>
     <t>Scenario 30:Delete Employee of an exisiting employee.</t>
   </si>
   <si>
@@ -405,9 +341,6 @@
 3. Send Delete Employee DEL request with    id of an deleted employee. </t>
   </si>
   <si>
-    <t>We see 200 OK status  , but we don’t see any validation or check being done to see if employee exists before doing DELETE function</t>
-  </si>
-  <si>
     <t>Scenario 31:Delete Employee of an already deleted employee.</t>
   </si>
   <si>
@@ -430,12 +363,6 @@
 3. Send Get Employee List GET request .    </t>
   </si>
   <si>
-    <t>We see a 200 OK status and we see the employee gets added with zero salary even though the request is to do update an existing employee.</t>
-  </si>
-  <si>
-    <t>We see 200 OK status with all employees list which are existing in the dashboard.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Get Employee </t>
   </si>
   <si>
@@ -447,17 +374,11 @@
 3. Send Get Employee  GET request with an existing employee id .    </t>
   </si>
   <si>
-    <t>We see 200 OK status with all the details of the employee id which is been put as an input.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.Login to Postman app.
 2.Go to QA Challenge collection
 3. Send Get Employee  GET request with an deleted employee id .    </t>
   </si>
   <si>
-    <t>We see 200 OK status with response as 1.</t>
-  </si>
-  <si>
     <t>Scenario 35:Get Employee details of an deleted employee</t>
   </si>
   <si>
@@ -470,6 +391,96 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>1.Login to Employee Benefit Application.
+2.Click on Add Employee button
+3. Do not enter any value for dependents, enter Chloe for last name, Jen  for first name, 0 as dependents
+4.Click on Add button.</t>
+  </si>
+  <si>
+    <t>Scenario 6:Add employee with zero dependents</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 200 OK status is shown with response as 1.</t>
+  </si>
+  <si>
+    <t>200 OK status  with all the details of the employee id which is been put as an input is shown.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 200 OK status with all employees list which are existing in the dashboard are shown.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 200 OK status shown  , but we don’t see any validation or check being done to see if employee exists before doing DELETE function</t>
+  </si>
+  <si>
+    <t>200 OK status is shown  , but we don’t see any validation or check being done to see if employee exists before doing DELETE function</t>
+  </si>
+  <si>
+    <t>200 OK status is shown and we don't see the employee record in UI.</t>
+  </si>
+  <si>
+    <t>A dialog box opens up asking "Delete employee record for FirstName LastName? And once Delete is clicked we see the record is been removed from dashboard.</t>
+  </si>
+  <si>
+    <t>200 OK status is shown and  employee gets added with zero salary even though the request is to do update an existing employee.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 500 internal server error is shown.</t>
+  </si>
+  <si>
+    <t>400 bad request with "The LastName field is required."</t>
+  </si>
+  <si>
+    <t>400 bad request with "The FirstName field is required."</t>
+  </si>
+  <si>
+    <t>Employee updated and can be seen in dsahboard.</t>
+  </si>
+  <si>
+    <t>400 bad request with "The field LastName must be a string with a maximum length of 50." error message.</t>
+  </si>
+  <si>
+    <t>400 bad request with "The field FirstName must be a string with a maximum length of 50." error message.</t>
+  </si>
+  <si>
+    <t>400 bad request with "The field Dependants must be between 0 and 32." error message.</t>
+  </si>
+  <si>
+    <t>500 Internal server error is thrown.</t>
+  </si>
+  <si>
+    <t>400 bad request with ""The field Dependants must be between 0 and 32." error message.</t>
+  </si>
+  <si>
+    <t>Response 200 OK is shown and  employee is added. Benefits are calculated correctly</t>
+  </si>
+  <si>
+    <t>500 Internal server error.</t>
+  </si>
+  <si>
+    <t>400 bad request with "The LastName field is required" error message.</t>
+  </si>
+  <si>
+    <t>400 bad request with "The FirstName field is required" error message.</t>
+  </si>
+  <si>
+    <t>Response 200 OK and we see employee is added. Benefits are calculated correctly</t>
+  </si>
+  <si>
+    <t>Response 200 OK and employee is added. Benefits are calculated correctly</t>
+  </si>
+  <si>
+    <t>Employee is added with zero dependents.$38.46 are deducted for benifis from every check of employee and employee will recive $1961.54 as Net pay on every paycheck.</t>
+  </si>
+  <si>
+    <t>400 error in console, but in UI it doesn't mention last Name as required filed.</t>
+  </si>
+  <si>
+    <t>400 error in console, but in UI it doesn't mention First Name as required filed.</t>
+  </si>
+  <si>
+    <t>Employee  added and no validation is done on it.</t>
   </si>
 </sst>
 </file>
@@ -519,12 +530,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,92 +880,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A278D1D-E76C-4495-BE4D-BA868C841B93}">
-  <dimension ref="E5:M9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="5" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="G5">
-        <v>1000</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>26</v>
-      </c>
-      <c r="M5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <f>32*500</f>
-        <v>16000</v>
-      </c>
-      <c r="G6">
-        <f>G5/K5</f>
-        <v>38.46153846153846</v>
-      </c>
-      <c r="I6">
-        <f>(I5/K5)*J5</f>
-        <v>57.692307692307693</v>
-      </c>
-      <c r="M6">
-        <f>M5-G6-I6</f>
-        <v>1903.8461538461538</v>
-      </c>
-    </row>
-    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E7">
-        <f>E6/26</f>
-        <v>615.38461538461536</v>
-      </c>
-      <c r="J7">
-        <f>G6+I6</f>
-        <v>96.15384615384616</v>
-      </c>
-    </row>
-    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E8">
-        <f>1000/26</f>
-        <v>38.46153846153846</v>
-      </c>
-    </row>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E9">
-        <f>E7+E8</f>
-        <v>653.84615384615381</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36A6AC1-F28E-4FD1-AA50-936963935509}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.85546875" customWidth="1"/>
-    <col min="5" max="5" width="53.85546875" customWidth="1"/>
+    <col min="5" max="5" width="53.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -961,13 +903,13 @@
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>110</v>
+      <c r="C1" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -978,7 +920,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -989,433 +931,433 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>62</v>
+      <c r="E3" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>62</v>
+      <c r="E4" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="D23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="D24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" t="s">
-        <v>52</v>
+      <c r="E24" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C25" t="s">
-        <v>59</v>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" t="s">
-        <v>73</v>
+        <v>45</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" t="s">
-        <v>77</v>
+      <c r="E27" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>78</v>
+      <c r="C28" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" t="s">
-        <v>81</v>
+        <v>63</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>82</v>
+      <c r="C29" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C30" t="s">
-        <v>85</v>
+      <c r="C30" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" t="s">
-        <v>87</v>
+        <v>68</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s">
-        <v>90</v>
+        <v>31</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" t="s">
-        <v>89</v>
+        <v>69</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s">
-        <v>93</v>
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" t="s">
-        <v>94</v>
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" t="s">
-        <v>92</v>
+        <v>74</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>97</v>
+        <v>31</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" t="s">
-        <v>100</v>
+        <v>77</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>102</v>
+        <v>31</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" t="s">
-        <v>104</v>
+        <v>80</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s">
-        <v>107</v>
+        <v>31</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" t="s">
-        <v>106</v>
+        <v>81</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" t="s">
-        <v>108</v>
+        <v>31</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" t="s">
-        <v>106</v>
+        <v>84</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
